--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_0_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_0_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.131115167416624, 71.74636666882246]</t>
+          <t>[53.139511656388734, 71.73797017985035]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.705786916391155, 55.0584812293474]</t>
+          <t>[42.709239773808704, 55.05502837192985]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,35 +685,35 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[50.34285383877362, 75.20748517477494]</t>
+          <t>[50.474132317907134, 75.07620669564143]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.059774655866931e-13</v>
+        <v>2.184918912462308e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>3.059774655866931e-13</v>
+        <v>2.184918912462308e-13</v>
       </c>
       <c r="P3" t="n">
         <v>1.150973885098963</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9371317425122712, 1.3648160276856558]</t>
+          <t>[0.9497106920761942, 1.3522370781217328]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>5.10702591327572e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>5.10702591327572e-15</v>
       </c>
       <c r="T3" t="n">
         <v>48.82326705198007</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.09774416562915, 55.548789938330984]</t>
+          <t>[42.09377364043489, 55.552760463525246]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -726,10 +726,10 @@
         <v>21.06570570570619</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.18796796796843</v>
+        <v>20.23959959960007</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.94344344344395</v>
+        <v>21.89181181181231</v>
       </c>
     </row>
     <row r="4">
@@ -771,14 +771,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[51.08010089601761, 78.04801447613893]</t>
+          <t>[51.07984507923581, 78.04827029292073]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.59894320006515e-12</v>
+        <v>1.599831378484851e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>1.59894320006515e-12</v>
+        <v>1.599831378484851e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0.761026448617347</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.30390032625083, 56.837813381852705]</t>
+          <t>[43.30976594730957, 56.831947760793966]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,35 +857,35 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[54.07810301647298, 77.76730517533461]</t>
+          <t>[54.0400621764807, 77.80534601532689]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.287858708565182e-14</v>
+        <v>1.443289932012704e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>1.287858708565182e-14</v>
+        <v>1.443289932012704e-14</v>
       </c>
       <c r="P5" t="n">
         <v>0.2830263651882694</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.09434212172942313, 0.47171060864711567]</t>
+          <t>[0.10692107129334527, 0.45913165908319353]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.004142907235937576</v>
+        <v>0.002270104082773727</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004142907235937576</v>
+        <v>0.002270104082773727</v>
       </c>
       <c r="T5" t="n">
         <v>50.71415731249478</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.025195650696574, 57.40311897429298]</t>
+          <t>[44.022516316061015, 57.40579830892854]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>24.62828828828885</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.85381381381436</v>
+        <v>23.90544544544599</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.40276276276334</v>
+        <v>25.35113113113172</v>
       </c>
     </row>
     <row r="6">
@@ -943,35 +943,35 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[54.3082346676711, 75.92555447275423]</t>
+          <t>[54.595203645818614, 75.63858549460672]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P6" t="n">
         <v>-0.07547369738353815</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.23900004171453926, 0.08805264694746295]</t>
+          <t>[-0.2515789912784623, 0.10063159651138598]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3575454033288272</v>
+        <v>0.3926119510892936</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3575454033288272</v>
+        <v>0.3926119510892936</v>
       </c>
       <c r="T6" t="n">
         <v>50.34900222952649</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.60907172642087, 57.08893273263211]</t>
+          <t>[43.60683008097774, 57.091174378075245]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -984,10 +984,10 @@
         <v>0.3097897897897965</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3614214214214336</v>
+        <v>-0.4130530530530662</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.9810010010010267</v>
+        <v>1.032632632632659</v>
       </c>
     </row>
     <row r="7">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.636993998128084, 75.91348875745715]</t>
+          <t>[49.91078193105742, 75.63970082452781]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.706412788848866e-12</v>
+        <v>8.921752225887758e-13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.706412788848866e-12</v>
+        <v>8.921752225887758e-13</v>
       </c>
       <c r="P7" t="n">
         <v>-0.5912106295043857</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.10361818355297, 55.54255003116582]</t>
+          <t>[42.09294946522694, 55.55321874949185]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[50.63772623852391, 73.90952900857967]</t>
+          <t>[50.58931241449935, 73.95794283260423]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.707345624410664e-14</v>
+        <v>5.395683899678261e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>4.707345624410664e-14</v>
+        <v>5.395683899678261e-14</v>
       </c>
       <c r="P8" t="n">
         <v>-1.018894914677771</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[40.86389053272093, 53.32605347191462]</t>
+          <t>[40.869400269977845, 53.320543734657704]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[53.92434963641955, 73.26112632773538]</t>
+          <t>[53.9326023516647, 73.25287361249023]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.83137250096436, 56.16886559639717]</t>
+          <t>[43.83696765073083, 56.163270446630705]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[54.05219272036534, 72.56833206558419]</t>
+          <t>[53.88980850828719, 72.73071627766234]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.45321619078692, 56.07054891940241]</t>
+          <t>[43.44748942536745, 56.07627568482188]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[53.79844267721802, 72.6744012352548]</t>
+          <t>[53.578942350451584, 72.89390156202124]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.7862108380770803, -1.459158149415078]</t>
+          <t>[-1.7987897876410024, -1.446579199851156]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.399066527908666, 58.063391095916465]</t>
+          <t>[45.39995869560904, 58.062498928216094]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1414,10 +1414,10 @@
         <v>6.371231231231338</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.729169169169261</v>
+        <v>5.679779779779875</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.013293293293414</v>
+        <v>7.062682682682801</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_0_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_0_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.139511656388734, 71.73797017985035]</t>
+          <t>[53.26240072431088, 71.6150811119282]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.709239773808704, 55.05502837192985]</t>
+          <t>[42.70689552082844, 55.057372624910116]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,35 +685,35 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[50.474132317907134, 75.07620669564143]</t>
+          <t>[50.859377007597544, 74.69096200595102]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.184918912462308e-13</v>
+        <v>7.860379014346108e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.184918912462308e-13</v>
+        <v>7.860379014346108e-14</v>
       </c>
       <c r="P3" t="n">
         <v>1.150973885098963</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9497106920761942, 1.3522370781217328]</t>
+          <t>[0.9371317425122712, 1.3648160276856558]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.10702591327572e-15</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>5.10702591327572e-15</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="T3" t="n">
         <v>48.82326705198007</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.09377364043489, 55.552760463525246]</t>
+          <t>[42.099300771317836, 55.5472333326423]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -726,10 +726,10 @@
         <v>21.06570570570619</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.23959959960007</v>
+        <v>20.18796796796843</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.89181181181231</v>
+        <v>21.94344344344395</v>
       </c>
     </row>
     <row r="4">
@@ -771,14 +771,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[51.07984507923581, 78.04827029292073]</t>
+          <t>[51.88246787962589, 77.24564749253065]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.599831378484851e-12</v>
+        <v>2.355893258254582e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.599831378484851e-12</v>
+        <v>2.355893258254582e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0.761026448617347</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.30976594730957, 56.831947760793966]</t>
+          <t>[43.300528917938465, 56.84118479016507]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[54.0400621764807, 77.80534601532689]</t>
+          <t>[54.01749333452011, 77.82791485728748]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.443289932012704e-14</v>
+        <v>1.532107773982716e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>1.443289932012704e-14</v>
+        <v>1.532107773982716e-14</v>
       </c>
       <c r="P5" t="n">
         <v>0.2830263651882694</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.022516316061015, 57.40579830892854]</t>
+          <t>[44.02769497794063, 57.40061964704893]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,14 +943,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[54.595203645818614, 75.63858549460672]</t>
+          <t>[54.39770194301528, 75.83608719741005]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="P6" t="n">
         <v>-0.07547369738353815</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.60683008097774, 57.091174378075245]</t>
+          <t>[43.60379803100325, 57.09420642804973]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.91078193105742, 75.63970082452781]</t>
+          <t>[50.07192201771877, 75.47856073786647]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>8.921752225887758e-13</v>
+        <v>6.02629057766535e-13</v>
       </c>
       <c r="O7" t="n">
-        <v>8.921752225887758e-13</v>
+        <v>6.02629057766535e-13</v>
       </c>
       <c r="P7" t="n">
         <v>-0.5912106295043857</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.09294946522694, 55.55321874949185]</t>
+          <t>[42.09804769762728, 55.548120517091505]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[50.58931241449935, 73.95794283260423]</t>
+          <t>[50.51725240415933, 74.03000284294424]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.395683899678261e-14</v>
+        <v>6.572520305780927e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>5.395683899678261e-14</v>
+        <v>6.572520305780927e-14</v>
       </c>
       <c r="P8" t="n">
         <v>-1.018894914677771</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[40.869400269977845, 53.320543734657704]</t>
+          <t>[40.86477120989396, 53.32517279474159]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[53.9326023516647, 73.25287361249023]</t>
+          <t>[53.944522296834066, 73.24095366732087]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.83696765073083, 56.163270446630705]</t>
+          <t>[43.83362505373846, 56.16661304362307]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[53.88980850828719, 72.73071627766234]</t>
+          <t>[54.03057119466364, 72.58995359128589]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.44748942536745, 56.07627568482188]</t>
+          <t>[43.45496730987413, 56.0687978003152]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[53.578942350451584, 72.89390156202124]</t>
+          <t>[53.722277209290894, 72.75056670318193]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.7987897876410024, -1.446579199851156]</t>
+          <t>[-1.7862108380770803, -1.459158149415078]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.39995869560904, 58.062498928216094]</t>
+          <t>[45.39273646344168, 58.06972116038345]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1414,10 +1414,10 @@
         <v>6.371231231231338</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.679779779779875</v>
+        <v>5.729169169169261</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.062682682682801</v>
+        <v>7.013293293293414</v>
       </c>
     </row>
   </sheetData>
